--- a/app/Helpers/Excel/template/t_uriage_nouhinsyo.xlsx
+++ b/app/Helpers/Excel/template/t_uriage_nouhinsyo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AICHI_KOUSOKU_UNYU\git\dev\app\Helpers\Excel\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\Web\AICHI_KOUSOKU_UNYU\app-src\app\Helpers\Excel\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
     <definedName name="領収書消去用_正">#REF!</definedName>
     <definedName name="領収金額">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -448,9 +448,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -462,42 +459,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -510,6 +471,46 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -522,10 +523,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -544,14 +541,29 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -559,15 +571,6 @@
     <xf numFmtId="3" fontId="11" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="3" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -579,9 +582,6 @@
     </xf>
     <xf numFmtId="3" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -970,11 +970,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="4" width="2.75" style="4" customWidth="1"/>
     <col min="5" max="5" width="10.875" style="4" customWidth="1"/>
@@ -992,512 +992,515 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="24" customHeight="1">
-      <c r="S1" s="59"/>
+      <c r="S1" s="25"/>
     </row>
     <row r="2" spans="1:20" ht="12" customHeight="1">
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
     </row>
     <row r="3" spans="1:20" ht="24" customHeight="1">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
     </row>
     <row r="4" spans="1:20" ht="12" customHeight="1"/>
-    <row r="5" spans="1:20">
-      <c r="A5" s="6"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="10"/>
+    <row r="5" spans="1:20" ht="12" customHeight="1">
+      <c r="A5" s="5"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="10"/>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="M5" s="7"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="9"/>
+    </row>
+    <row r="6" spans="1:20" ht="12" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="13"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
       <c r="L6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="11"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="13"/>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="M6" s="10"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="12"/>
+    </row>
+    <row r="7" spans="1:20" ht="12" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="13"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="13"/>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="M7" s="10"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="12"/>
+    </row>
+    <row r="8" spans="1:20" ht="12" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="13"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
       <c r="L8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="11"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="13"/>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="M8" s="10"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="12"/>
+    </row>
+    <row r="9" spans="1:20" ht="12" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="13"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="12"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="13"/>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="M9" s="10"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="12"/>
+    </row>
+    <row r="10" spans="1:20" ht="12" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="13"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
       <c r="L10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M10" s="11"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="13"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="7"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="16"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="12"/>
+    </row>
+    <row r="11" spans="1:20" ht="12" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="15"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="16"/>
-    </row>
+      <c r="M11" s="13"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="15"/>
+    </row>
+    <row r="12" spans="1:20" ht="12" customHeight="1"/>
     <row r="13" spans="1:20" ht="24" customHeight="1">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="28"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="28"/>
-      <c r="S13" s="29" t="s">
+      <c r="B13" s="31"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="35"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="35"/>
+      <c r="S13" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="T13" s="47"/>
-    </row>
+      <c r="T13" s="24"/>
+    </row>
+    <row r="14" spans="1:20" ht="12" customHeight="1"/>
     <row r="15" spans="1:20" ht="24" customHeight="1">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="20" t="s">
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="21"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="20" t="s">
+      <c r="J15" s="49"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="22"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="50"/>
     </row>
     <row r="16" spans="1:20" ht="24" customHeight="1">
-      <c r="A16" s="52"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="53"/>
-      <c r="S16" s="53"/>
-      <c r="T16" s="54"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="53"/>
     </row>
     <row r="17" spans="1:20" ht="24" customHeight="1">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="33"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="20"/>
     </row>
     <row r="18" spans="1:20" ht="24" customHeight="1">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="32"/>
-      <c r="T18" s="33"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="20"/>
     </row>
     <row r="19" spans="1:20" ht="24" customHeight="1">
-      <c r="A19" s="31"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="33"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="20"/>
     </row>
     <row r="20" spans="1:20" ht="24" customHeight="1">
-      <c r="A20" s="31"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="33"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="20"/>
     </row>
     <row r="21" spans="1:20" ht="12" customHeight="1">
-      <c r="G21" s="35" t="s">
+      <c r="G21" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="36"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="36"/>
-    </row>
-    <row r="22" spans="1:20" ht="12" customHeight="1">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="38"/>
-      <c r="Q22" s="40" t="s">
+      <c r="H21" s="37"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="37"/>
+    </row>
+    <row r="22" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="39"/>
+      <c r="Q22" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="12" customHeight="1">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="Q23" s="40"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="Q23" s="23"/>
     </row>
     <row r="24" spans="1:20" ht="12" customHeight="1">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="Q24" s="40" t="s">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="Q24" s="23" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="24" customHeight="1">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="G25" s="20" t="s">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="G25" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="22"/>
-      <c r="I25" s="20" t="s">
+      <c r="H25" s="50"/>
+      <c r="I25" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="22"/>
-      <c r="Q25" s="40" t="s">
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="50"/>
+      <c r="Q25" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="12" customHeight="1">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="43"/>
-      <c r="Q26" s="40"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="42"/>
+      <c r="Q26" s="23"/>
     </row>
     <row r="27" spans="1:20" ht="12" customHeight="1">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="46"/>
-      <c r="Q27" s="40" t="s">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="45"/>
+      <c r="Q27" s="23" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="12" customHeight="1">
-      <c r="Q28" s="40" t="s">
+      <c r="Q28" s="23" t="s">
         <v>17</v>
       </c>
     </row>
+    <row r="29" spans="1:20" ht="8.25" customHeight="1"/>
     <row r="30" spans="1:20">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="19"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="32"/>
     </row>
     <row r="31" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A31" s="8"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="10"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
     </row>
     <row r="32" spans="1:20">
-      <c r="A32" s="11"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="13"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="12"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="14"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="16"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="G26:H27"/>
-    <mergeCell ref="I26:O27"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D3:E3"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="G21:H22"/>
     <mergeCell ref="I21:J22"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="I25:O25"/>
+    <mergeCell ref="H2:M3"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="G26:H27"/>
+    <mergeCell ref="I26:O27"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D3:E3"/>
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="L15:T15"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="L16:T16"/>
     <mergeCell ref="I16:J16"/>
-    <mergeCell ref="H2:M3"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="L13:Q13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1506,21 +1509,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F8E5CD21D6199546BF716D23F68AF356" ma:contentTypeVersion="6" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="d18ba794cf59306c3a4ac6bd7f2d93f8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a7c554d-f66f-4a70-b3a2-1c9c37802a05" xmlns:ns3="7e23b3fd-46ad-45a9-ad9f-5d2d2a86b287" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b67f3b84c84b662d1733d057c56ce6a" ns2:_="" ns3:_="">
     <xsd:import namespace="1a7c554d-f66f-4a70-b3a2-1c9c37802a05"/>
@@ -1697,7 +1685,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A3A837B-9E45-4C6C-A0D4-965A3712EEAC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1a7c554d-f66f-4a70-b3a2-1c9c37802a05"/>
+    <ds:schemaRef ds:uri="7e23b3fd-46ad-45a9-ad9f-5d2d2a86b287"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5206B66B-0412-4EDC-8A4A-51105F5A35BD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -1714,29 +1736,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{025EAFA2-461C-4B4F-A9E2-5C3A205A97A7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A3A837B-9E45-4C6C-A0D4-965A3712EEAC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1a7c554d-f66f-4a70-b3a2-1c9c37802a05"/>
-    <ds:schemaRef ds:uri="7e23b3fd-46ad-45a9-ad9f-5d2d2a86b287"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>